--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2084213.141778185</v>
+        <v>-2087247.473855038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>60.953092730774</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.57653460835996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>68.57377069353927</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>122.5935461816077</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.8523243026412</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>211.5689129560866</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.2362495601358</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>54.42397186352315</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>38.73452730914808</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>242.0901855291656</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>338.5345847800409</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>114.8179792252829</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>141.55483850657</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>201.4146116546632</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>218.0941903786794</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,16 +2059,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>152.5661273824812</v>
       </c>
       <c r="W19" t="n">
-        <v>49.27938056040952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,10 +2296,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>2.308339682493927</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>126.8772582534104</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>35.66783179869854</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261718</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002294</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652592</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972047</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969977</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600556</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002294</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652592</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972047</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969977</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065883</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002293</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972047</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969976</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065883</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002293</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352487</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969976</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>1791.441971726847</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.479454786436</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1064.213756179685</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1064.213756179685</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>653.2278513900778</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>235.2640432882647</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2178.041811790969</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2178.041811790969</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2178.041811790969</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2178.041811790969</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>2178.041811790969</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D4" t="n">
-        <v>325.6879402326643</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>177.7748466502712</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>177.7748466502712</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>2170.876182214546</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>984.6750962183016</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>615.71257927789</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2077.032696106363</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>540.8565404798628</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1975.94687169884</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1606.984354758428</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1248.718656151678</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>862.9304035534335</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>451.9444987638259</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1947.397620238156</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>215.5772630464452</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>370.8558756644252</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644252</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,64 +5027,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1152.194423875922</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1152.194423875922</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
@@ -5367,7 +5367,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.827124689057</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.827124689057</v>
+        <v>1446.94343723168</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.827124689057</v>
+        <v>1157.52626719472</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>929.5367162967025</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>708.7441371531723</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,19 +5498,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277728</v>
@@ -5519,46 +5519,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390117</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.5338801960603</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5976972681534</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>1009.850443007983</v>
       </c>
       <c r="W19" t="n">
-        <v>949.3264593395904</v>
+        <v>720.4332729710225</v>
       </c>
       <c r="X19" t="n">
-        <v>949.3264593395904</v>
+        <v>720.4332729710225</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.5338801960603</v>
+        <v>720.4332729710225</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.625986139284</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>872.2088161023238</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>644.2192652043065</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5984,28 +5984,28 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>973.7726509601081</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>804.8364680322012</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>654.7198286198654</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1828.184619384087</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1606.418003953613</v>
       </c>
       <c r="U25" t="n">
-        <v>1920.315353176725</v>
+        <v>1317.315137079256</v>
       </c>
       <c r="V25" t="n">
-        <v>1665.630864970839</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="W25" t="n">
-        <v>1376.213694933878</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X25" t="n">
-        <v>1376.213694933878</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y25" t="n">
-        <v>1155.421115790348</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6315,13 +6315,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852267</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6528,10 +6528,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
         <v>93.81666304797187</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468485</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.528408326418</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565706</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150033</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311332</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,37 +6689,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852267</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6765,37 +6765,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348537</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231134</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382521</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717218</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931277</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547837</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532434</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111615</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075719</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333238</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311332</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547837</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532434</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7239,37 +7239,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821487</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311334</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547837</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532434</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7494,13 +7494,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,13 +7570,13 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476844</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>288.0478149561022</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>132.9990175570114</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-1.213606992678251e-11</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.213606992678251e-11</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-11</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-11</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-2.243354900368079e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>220.2192156730161</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3462381559972</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>85.10838668192775</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890359</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>34.0434529451486</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795434053</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.57151594134677</v>
       </c>
       <c r="W19" t="n">
-        <v>237.2436177761815</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>249.8293036413341</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>62.89176707803151</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.5440064069143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.00146066982</v>
+        <v>53560.00146066981</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304747</v>
       </c>
       <c r="F2" t="n">
         <v>59562.26803304749</v>
       </c>
       <c r="G2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304747</v>
       </c>
       <c r="H2" t="n">
-        <v>59562.26803304746</v>
+        <v>59562.26803304747</v>
       </c>
       <c r="I2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672232</v>
+        <v>395954.8515672233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.641776634642156e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363036</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>131186.7918361227</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>12448.50789975159</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975162</v>
+        <v>12448.50789975137</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975137</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975139</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975139</v>
       </c>
       <c r="O4" t="n">
         <v>12448.50789975158</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975156</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750453.7476534068</v>
+        <v>-750721.0186960452</v>
       </c>
       <c r="C6" t="n">
         <v>-213487.541716018</v>
       </c>
       <c r="D6" t="n">
-        <v>-213487.541716018</v>
+        <v>-213487.5417160179</v>
       </c>
       <c r="E6" t="n">
-        <v>-785818.2722111646</v>
+        <v>-785885.4677013905</v>
       </c>
       <c r="F6" t="n">
-        <v>-58440.85821775802</v>
+        <v>-58508.05370798383</v>
       </c>
       <c r="G6" t="n">
-        <v>-58440.85821775804</v>
+        <v>-58508.05370798383</v>
       </c>
       <c r="H6" t="n">
-        <v>-58440.85821775806</v>
+        <v>-58508.0537079838</v>
       </c>
       <c r="I6" t="n">
-        <v>-58440.85821775802</v>
+        <v>-58508.05370798383</v>
       </c>
       <c r="J6" t="n">
-        <v>-449989.342581069</v>
+        <v>-449989.3425810691</v>
       </c>
       <c r="K6" t="n">
-        <v>-54034.49101384576</v>
+        <v>-54034.49101384726</v>
       </c>
       <c r="L6" t="n">
-        <v>-54034.49101384574</v>
+        <v>-54034.49101384559</v>
       </c>
       <c r="M6" t="n">
-        <v>-183676.8058527905</v>
+        <v>-183676.8058527904</v>
       </c>
       <c r="N6" t="n">
-        <v>-54034.49101384577</v>
+        <v>-54034.49101384563</v>
       </c>
       <c r="O6" t="n">
-        <v>-73462.20900747745</v>
+        <v>-73462.20900747606</v>
       </c>
       <c r="P6" t="n">
-        <v>-54034.49101384573</v>
+        <v>-54034.49101384552</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203948</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203948</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203951</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203953</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26762,16 +26762,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203987</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-1.232778910660073e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492741</v>
+        <v>652.4826302492738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>84.10058336721747</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>182.65039681475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>44.71625607744321</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>19.42954993933654</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>143.1141286645963</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>334.0047191572772</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.7215670864958</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>247.7884710274429</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>171.6939844916294</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.70335387601273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>31.61598342128623</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>144.968159830021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.249015705676963e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203948</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203951</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203953</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
         <v>447.6103584002926</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,16 +33035,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>641.2555750770802</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214708</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557958</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643557958</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N39" t="n">
-        <v>357.9244589488886</v>
+        <v>463.9598929192503</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181827</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359034</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908542</v>
@@ -35732,13 +35732,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
@@ -35887,7 +35887,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>840.3496503690137</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>588.5891319493436</v>
+        <v>631.8075074371752</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902289</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>509.9138629937468</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071406</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016749</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819475</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980855</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902289</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113514</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.617235901675</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819476</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980855</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396315</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113514</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.617235901675</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819476</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980855</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924618</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5827468655553</v>
+        <v>332.6181808359169</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.617235901675</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819477</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980855</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.916420798665</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>101.8925903961643</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
